--- a/Excel_old_data/Analytics Vidhya - 15 Functions you should know.xlsx
+++ b/Excel_old_data/Analytics Vidhya - 15 Functions you should know.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron\Microsoft_Excel\Excel_old_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7D62D-F85B-4893-AECD-5FEE19DE012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373FAEC-FDDC-4BAE-BA79-4AD980A756D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -589,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,11 +622,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="M67" s="10" t="str">
-        <f t="shared" ref="M66:M76" si="16">VLOOKUP(A67,F66:K78,2,0)</f>
+        <f t="shared" ref="M67:M76" si="16">VLOOKUP(A67,F66:K78,2,0)</f>
         <v>Catherine</v>
       </c>
       <c r="N67" s="10" t="str">
@@ -3551,7 +3540,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3955,13 +3944,13 @@
       <c r="F119" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G119" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H119" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I119" s="20" t="s">
+      <c r="I119" s="19" t="s">
         <v>150</v>
       </c>
     </row>
